--- a/excel文件/plsql的简单使用.xlsx
+++ b/excel文件/plsql的简单使用.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byvai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitClient\zwp-document\excel文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="plsql的简单使用" sheetId="1" r:id="rId1"/>
+    <sheet name="plsql中创建表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>plsql的简单使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +100,22 @@
   </si>
   <si>
     <t>此时连接完之后在Tables下面没有表的存在，那是因为还没有用此用户创建过表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关快捷键：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码提示：F6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行SQL：F8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,6 +590,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>170571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F72CF9E5-7CF0-4288-9C0A-8756A0107B08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="361950"/>
+          <a:ext cx="13009524" cy="7028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -872,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
@@ -980,4 +1046,46 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/excel文件/plsql的简单使用.xlsx
+++ b/excel文件/plsql的简单使用.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7590" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="plsql的简单使用" sheetId="1" r:id="rId1"/>
     <sheet name="plsql中创建表" sheetId="2" r:id="rId2"/>
+    <sheet name="plsql相关快捷键" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1050,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C45"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -1067,25 +1068,52 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C44" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>